--- a/Data/GO_term_component_enrichment.xlsx
+++ b/Data/GO_term_component_enrichment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paddyharker/Documents/SENIOR HONOURS/Honours Project 20:21/Results/Motif analysis/Scerevisiae_RBP_motifs_Calbicans/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7529C3-66CD-1241-9752-2AAC6275BE36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86487BAD-7E56-DE43-932A-6DC0A244058B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9DF6BEA6-8B22-8F4A-9BC0-658B1D0C931F}"/>
   </bookViews>
